--- a/Working/HW7_Farm/Irrigation_calcs.xlsx
+++ b/Working/HW7_Farm/Irrigation_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tento\Documents\GW_Modeling\homework-akahler03\Working\HW7_Farm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FB3C20-D2A6-4F2F-9C0D-B7851710EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCC9385-3CA8-48EC-B59F-4B9CF49BCB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="15" windowWidth="21600" windowHeight="18900" activeTab="4" xr2:uid="{95552477-5BED-4669-AFA1-BE144C8D60A8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{95552477-5BED-4669-AFA1-BE144C8D60A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcs" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,12 +451,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8.5"/>
@@ -934,11 +928,8 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -965,6 +956,9 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2836,28 +2830,28 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>30</v>
       </c>
@@ -2892,7 +2886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4047</v>
       </c>
@@ -2925,7 +2919,7 @@
         <v>863.46964693929408</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A2*A3</f>
         <v>121410</v>
@@ -2963,7 +2957,7 @@
         <v>10279.40055880112</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>SQRT(A4)</f>
         <v>348.4393777976307</v>
@@ -2972,7 +2966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>300</v>
       </c>
@@ -2983,7 +2977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>39.369999999999997</v>
       </c>
@@ -3003,7 +2997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3020,12 +3014,12 @@
         <v>10279</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -3033,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>500</v>
       </c>
@@ -3044,7 +3038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>A11*A3</f>
         <v>2023500</v>
@@ -3056,7 +3050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f>2*A14</f>
         <v>2011.715685677269</v>
@@ -3074,7 +3068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>1005.8578428386345</v>
       </c>
@@ -3091,7 +3085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>A13*A14</f>
         <v>2023499.9999999823</v>
@@ -3103,7 +3097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -3114,7 +3108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1000</v>
       </c>
@@ -3125,7 +3119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J18">
         <v>10</v>
       </c>
@@ -3145,31 +3139,31 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>30</v>
       </c>
@@ -3204,7 +3198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4047</v>
       </c>
@@ -3238,7 +3232,7 @@
         <v>348.09148193638856</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A2*A3</f>
         <v>121410</v>
@@ -3277,7 +3271,7 @@
         <v>5231.2291884857741</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>SQRT(A4)</f>
         <v>348.4393777976307</v>
@@ -3286,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>300</v>
       </c>
@@ -3303,7 +3297,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>39.369999999999997</v>
       </c>
@@ -3328,7 +3322,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>41.2</v>
       </c>
@@ -3352,7 +3346,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3374,7 +3368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J10">
         <f>J9*0.8</f>
         <v>3.1175952762864437E-3</v>
@@ -3386,12 +3380,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>500</v>
       </c>
@@ -3399,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>A12*A3</f>
         <v>2023500</v>
@@ -3408,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f>2*A15</f>
         <v>2011.715685677269</v>
@@ -3423,7 +3417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1005.8578428386345</v>
       </c>
@@ -3437,7 +3431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>A14*A15</f>
         <v>2023499.9999999823</v>
@@ -3446,7 +3440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -3454,7 +3448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -3462,7 +3456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>74.3</v>
       </c>
@@ -3484,31 +3478,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985C0448-3728-4BF2-A1A5-B41C6030100C}">
   <dimension ref="B2:BO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AR23" sqref="AR23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" style="10"/>
+    <col min="1" max="2" width="3.6640625" style="10"/>
     <col min="3" max="3" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.7109375" style="10"/>
-    <col min="6" max="6" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="10"/>
-    <col min="8" max="17" width="3.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="32" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" style="10"/>
-    <col min="34" max="34" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="35" max="41" width="3.7109375" style="10"/>
-    <col min="42" max="42" width="4.5703125" style="10" customWidth="1"/>
-    <col min="43" max="43" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.6640625" style="10"/>
+    <col min="6" max="6" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="10"/>
+    <col min="8" max="17" width="3.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="32" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.6640625" style="10"/>
+    <col min="34" max="34" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="3.6640625" style="10"/>
+    <col min="42" max="42" width="4.5546875" style="10" customWidth="1"/>
+    <col min="43" max="43" width="6.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.7109375" style="10"/>
-    <col min="46" max="46" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="3.7109375" style="10"/>
+    <col min="45" max="45" width="3.6640625" style="10"/>
+    <col min="46" max="46" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="3.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
@@ -3519,7 +3513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
@@ -3533,7 +3527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
@@ -3635,7 +3629,7 @@
       <c r="AU4" s="11"/>
       <c r="AV4" s="11"/>
     </row>
-    <row r="5" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="13">
         <v>2400</v>
       </c>
@@ -3695,7 +3689,7 @@
       </c>
       <c r="AV5" s="11"/>
     </row>
-    <row r="6" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F6" s="13">
         <v>2300</v>
       </c>
@@ -3748,7 +3742,7 @@
       </c>
       <c r="AV6" s="11"/>
     </row>
-    <row r="7" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F7" s="13">
         <v>2200</v>
       </c>
@@ -3801,7 +3795,7 @@
       </c>
       <c r="AV7" s="11"/>
     </row>
-    <row r="8" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F8" s="13">
         <v>2100</v>
       </c>
@@ -3854,7 +3848,7 @@
       </c>
       <c r="AV8" s="11"/>
     </row>
-    <row r="9" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="13">
         <v>2000</v>
       </c>
@@ -3890,7 +3884,7 @@
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
     </row>
-    <row r="10" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F10" s="13">
         <v>1900</v>
       </c>
@@ -3935,7 +3929,7 @@
       <c r="AU10" s="11"/>
       <c r="AV10" s="11"/>
     </row>
-    <row r="11" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="61" t="s">
         <v>49</v>
       </c>
@@ -3987,7 +3981,7 @@
       <c r="AU11" s="11"/>
       <c r="AV11" s="11"/>
     </row>
-    <row r="12" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="61" t="s">
         <v>50</v>
       </c>
@@ -4041,7 +4035,7 @@
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
     </row>
-    <row r="13" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="61">
         <f>C4-5</f>
         <v>995</v>
@@ -4110,7 +4104,7 @@
       <c r="AU13" s="11"/>
       <c r="AV13" s="11"/>
     </row>
-    <row r="14" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F14" s="13">
         <v>1500</v>
       </c>
@@ -4160,7 +4154,7 @@
       <c r="AU14" s="11"/>
       <c r="AV14" s="11"/>
     </row>
-    <row r="15" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F15" s="13">
         <v>1400</v>
       </c>
@@ -4212,7 +4206,7 @@
       <c r="AU15" s="11"/>
       <c r="AV15" s="11"/>
     </row>
-    <row r="16" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F16" s="13">
         <v>1300</v>
       </c>
@@ -4256,7 +4250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F17" s="13">
         <v>1200</v>
       </c>
@@ -4301,7 +4295,7 @@
       <c r="AU17" s="11"/>
       <c r="AV17" s="11"/>
     </row>
-    <row r="18" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F18" s="13">
         <v>1100</v>
       </c>
@@ -4344,7 +4338,7 @@
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
     </row>
-    <row r="19" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F19" s="13">
         <v>1000</v>
       </c>
@@ -4389,7 +4383,7 @@
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
     </row>
-    <row r="20" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F20" s="13">
         <v>900</v>
       </c>
@@ -4433,7 +4427,7 @@
       <c r="AU20" s="11"/>
       <c r="AV20" s="11"/>
     </row>
-    <row r="21" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F21" s="13">
         <v>800</v>
       </c>
@@ -4479,7 +4473,7 @@
       <c r="AU21" s="11"/>
       <c r="AV21" s="11"/>
     </row>
-    <row r="22" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F22" s="13">
         <v>700</v>
       </c>
@@ -4523,7 +4517,7 @@
       <c r="AU22" s="11"/>
       <c r="AV22" s="11"/>
     </row>
-    <row r="23" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F23" s="13">
         <v>600</v>
       </c>
@@ -4569,7 +4563,7 @@
       <c r="AU23" s="11"/>
       <c r="AV23" s="11"/>
     </row>
-    <row r="24" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F24" s="13">
         <v>500</v>
       </c>
@@ -4603,7 +4597,7 @@
       <c r="AF24" s="50"/>
       <c r="AS24" s="11"/>
     </row>
-    <row r="25" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F25" s="13">
         <v>400</v>
       </c>
@@ -4639,7 +4633,7 @@
       <c r="AF25" s="50"/>
       <c r="AS25" s="11"/>
     </row>
-    <row r="26" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="13">
         <v>300</v>
       </c>
@@ -4672,7 +4666,7 @@
       <c r="AE26" s="17"/>
       <c r="AF26" s="50"/>
     </row>
-    <row r="27" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F27" s="13">
         <v>200</v>
       </c>
@@ -4705,7 +4699,7 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="50"/>
     </row>
-    <row r="28" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F28" s="13">
         <v>100</v>
       </c>
@@ -4738,7 +4732,7 @@
       <c r="AE28" s="17"/>
       <c r="AF28" s="50"/>
     </row>
-    <row r="29" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F29" s="13">
         <v>0</v>
       </c>
@@ -4776,13 +4770,13 @@
       </c>
       <c r="AS29" s="11"/>
     </row>
-    <row r="30" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="AS30" s="11"/>
     </row>
-    <row r="31" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H31" s="13">
         <f>H4*$C$2</f>
         <v>0</v>
@@ -4823,63 +4817,63 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="R31" s="64">
+      <c r="R31" s="63">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="S31" s="64">
+      <c r="S31" s="63">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="T31" s="64">
+      <c r="T31" s="63">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="U31" s="64">
+      <c r="U31" s="63">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="V31" s="64">
+      <c r="V31" s="63">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="W31" s="64">
+      <c r="W31" s="63">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="X31" s="64">
+      <c r="X31" s="63">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y31" s="64">
+      <c r="Y31" s="63">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="Z31" s="64">
+      <c r="Z31" s="63">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="AA31" s="64">
+      <c r="AA31" s="63">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="AB31" s="65">
+      <c r="AB31" s="64">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AC31" s="64">
+      <c r="AC31" s="63">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="AD31" s="65">
+      <c r="AD31" s="64">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="AE31" s="65">
+      <c r="AE31" s="64">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="AF31" s="65">
+      <c r="AF31" s="64">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
@@ -4888,22 +4882,22 @@
       </c>
       <c r="AS31" s="11"/>
     </row>
-    <row r="32" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="R32" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AS32" s="11"/>
     </row>
-    <row r="33" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS33" s="11"/>
     </row>
-    <row r="34" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS34" s="11"/>
     </row>
-    <row r="35" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS35" s="11"/>
     </row>
-    <row r="36" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS36" s="11"/>
     </row>
   </sheetData>
@@ -4921,27 +4915,27 @@
       <selection activeCell="BL25" sqref="BL25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" style="10"/>
+    <col min="1" max="2" width="3.6640625" style="10"/>
     <col min="3" max="3" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.7109375" style="10"/>
-    <col min="6" max="6" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="10"/>
-    <col min="8" max="17" width="3.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="32" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" style="10"/>
-    <col min="34" max="34" width="7.5703125" style="10" customWidth="1"/>
-    <col min="35" max="41" width="3.7109375" style="10"/>
-    <col min="42" max="42" width="4.5703125" style="10" customWidth="1"/>
-    <col min="43" max="43" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.6640625" style="10"/>
+    <col min="6" max="6" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="10"/>
+    <col min="8" max="17" width="3.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="32" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.6640625" style="10"/>
+    <col min="34" max="34" width="7.5546875" style="10" customWidth="1"/>
+    <col min="35" max="41" width="3.6640625" style="10"/>
+    <col min="42" max="42" width="4.5546875" style="10" customWidth="1"/>
+    <col min="43" max="43" width="6.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.7109375" style="10"/>
-    <col min="46" max="46" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="3.7109375" style="10"/>
+    <col min="45" max="45" width="3.6640625" style="10"/>
+    <col min="46" max="46" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="3.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
@@ -4952,7 +4946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
@@ -4966,7 +4960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
@@ -5068,7 +5062,7 @@
       <c r="AU4" s="11"/>
       <c r="AV4" s="11"/>
     </row>
-    <row r="5" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="13">
         <v>2400</v>
       </c>
@@ -5128,7 +5122,7 @@
       </c>
       <c r="AV5" s="11"/>
     </row>
-    <row r="6" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F6" s="13">
         <v>2300</v>
       </c>
@@ -5181,7 +5175,7 @@
       </c>
       <c r="AV6" s="11"/>
     </row>
-    <row r="7" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F7" s="13">
         <v>2200</v>
       </c>
@@ -5234,7 +5228,7 @@
       </c>
       <c r="AV7" s="11"/>
     </row>
-    <row r="8" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F8" s="13">
         <v>2100</v>
       </c>
@@ -5287,7 +5281,7 @@
       </c>
       <c r="AV8" s="11"/>
     </row>
-    <row r="9" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="13">
         <v>2000</v>
       </c>
@@ -5323,7 +5317,7 @@
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
     </row>
-    <row r="10" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F10" s="13">
         <v>1900</v>
       </c>
@@ -5368,7 +5362,7 @@
       <c r="AU10" s="11"/>
       <c r="AV10" s="11"/>
     </row>
-    <row r="11" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="61" t="s">
         <v>49</v>
       </c>
@@ -5420,7 +5414,7 @@
       <c r="AU11" s="11"/>
       <c r="AV11" s="11"/>
     </row>
-    <row r="12" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="61" t="s">
         <v>50</v>
       </c>
@@ -5474,7 +5468,7 @@
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
     </row>
-    <row r="13" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="61">
         <f>C4-5</f>
         <v>1095</v>
@@ -5488,15 +5482,15 @@
       <c r="G13" s="12">
         <v>8</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="21"/>
       <c r="J13" s="58" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="21"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -5507,14 +5501,14 @@
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="68"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="67"/>
       <c r="AH13" s="62">
         <f>C4-50</f>
         <v>1050</v>
@@ -5543,7 +5537,7 @@
       <c r="AU13" s="11"/>
       <c r="AV13" s="11"/>
     </row>
-    <row r="14" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F14" s="13">
         <v>1500</v>
       </c>
@@ -5594,7 +5588,7 @@
       <c r="AU14" s="11"/>
       <c r="AV14" s="11"/>
     </row>
-    <row r="15" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F15" s="13">
         <v>1400</v>
       </c>
@@ -5617,7 +5611,7 @@
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
-      <c r="X15" s="69"/>
+      <c r="X15" s="68"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
@@ -5643,7 +5637,7 @@
       <c r="AU15" s="11"/>
       <c r="AV15" s="11"/>
     </row>
-    <row r="16" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F16" s="13">
         <v>1300</v>
       </c>
@@ -5687,7 +5681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F17" s="13">
         <v>1200</v>
       </c>
@@ -5732,7 +5726,7 @@
       <c r="AU17" s="11"/>
       <c r="AV17" s="11"/>
     </row>
-    <row r="18" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F18" s="13">
         <v>1100</v>
       </c>
@@ -5775,7 +5769,7 @@
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
     </row>
-    <row r="19" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F19" s="13">
         <v>1000</v>
       </c>
@@ -5820,7 +5814,7 @@
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
     </row>
-    <row r="20" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F20" s="13">
         <v>900</v>
       </c>
@@ -5864,7 +5858,7 @@
       <c r="AU20" s="11"/>
       <c r="AV20" s="11"/>
     </row>
-    <row r="21" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F21" s="13">
         <v>800</v>
       </c>
@@ -5910,7 +5904,7 @@
       <c r="AU21" s="11"/>
       <c r="AV21" s="11"/>
     </row>
-    <row r="22" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F22" s="13">
         <v>700</v>
       </c>
@@ -5954,7 +5948,7 @@
       <c r="AU22" s="11"/>
       <c r="AV22" s="11"/>
     </row>
-    <row r="23" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F23" s="13">
         <v>600</v>
       </c>
@@ -5991,7 +5985,7 @@
       <c r="AU23" s="11"/>
       <c r="AV23" s="11"/>
     </row>
-    <row r="24" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F24" s="13">
         <v>500</v>
       </c>
@@ -6025,7 +6019,7 @@
       <c r="AF24" s="50"/>
       <c r="AS24" s="11"/>
     </row>
-    <row r="25" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F25" s="13">
         <v>400</v>
       </c>
@@ -6043,7 +6037,7 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="69"/>
+      <c r="S25" s="68"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
@@ -6059,7 +6053,7 @@
       <c r="AF25" s="50"/>
       <c r="AS25" s="11"/>
     </row>
-    <row r="26" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="13">
         <v>300</v>
       </c>
@@ -6092,7 +6086,7 @@
       <c r="AE26" s="17"/>
       <c r="AF26" s="50"/>
     </row>
-    <row r="27" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F27" s="13">
         <v>200</v>
       </c>
@@ -6127,7 +6121,7 @@
       <c r="AE27" s="17"/>
       <c r="AF27" s="50"/>
     </row>
-    <row r="28" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F28" s="13">
         <v>100</v>
       </c>
@@ -6160,7 +6154,7 @@
       <c r="AE28" s="17"/>
       <c r="AF28" s="50"/>
     </row>
-    <row r="29" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F29" s="13">
         <v>0</v>
       </c>
@@ -6198,13 +6192,13 @@
       </c>
       <c r="AS29" s="11"/>
     </row>
-    <row r="30" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="AS30" s="11"/>
     </row>
-    <row r="31" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H31" s="13">
         <f>H4*$C$2</f>
         <v>0</v>
@@ -6245,63 +6239,63 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="R31" s="64">
+      <c r="R31" s="63">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="S31" s="64">
+      <c r="S31" s="63">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="T31" s="64">
+      <c r="T31" s="63">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="U31" s="64">
+      <c r="U31" s="63">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="V31" s="64">
+      <c r="V31" s="63">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="W31" s="64">
+      <c r="W31" s="63">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="X31" s="64">
+      <c r="X31" s="63">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y31" s="64">
+      <c r="Y31" s="63">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="Z31" s="64">
+      <c r="Z31" s="63">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="AA31" s="64">
+      <c r="AA31" s="63">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="AB31" s="65">
+      <c r="AB31" s="64">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AC31" s="64">
+      <c r="AC31" s="63">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="AD31" s="65">
+      <c r="AD31" s="64">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="AE31" s="65">
+      <c r="AE31" s="64">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="AF31" s="65">
+      <c r="AF31" s="64">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
@@ -6310,22 +6304,22 @@
       </c>
       <c r="AS31" s="11"/>
     </row>
-    <row r="32" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="R32" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AS32" s="11"/>
     </row>
-    <row r="33" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS33" s="11"/>
     </row>
-    <row r="34" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS34" s="11"/>
     </row>
-    <row r="35" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS35" s="11"/>
     </row>
-    <row r="36" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS36" s="11"/>
     </row>
   </sheetData>
@@ -6339,31 +6333,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5010E7F9-9FD1-4AD9-937B-5F17C26145B4}">
   <dimension ref="B2:BO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AM36" sqref="AM36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="3.7109375" style="10"/>
+    <col min="1" max="2" width="3.6640625" style="10"/>
     <col min="3" max="3" width="7" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.7109375" style="10"/>
-    <col min="6" max="6" width="5.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="10"/>
-    <col min="8" max="17" width="3.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="32" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" style="10"/>
-    <col min="34" max="34" width="7.5703125" style="10" customWidth="1"/>
-    <col min="35" max="41" width="3.7109375" style="10"/>
-    <col min="42" max="42" width="4.5703125" style="10" customWidth="1"/>
-    <col min="43" max="43" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.6640625" style="10"/>
+    <col min="6" max="6" width="5.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6640625" style="10"/>
+    <col min="8" max="17" width="3.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="32" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.6640625" style="10"/>
+    <col min="34" max="34" width="7.5546875" style="10" customWidth="1"/>
+    <col min="35" max="41" width="3.6640625" style="10"/>
+    <col min="42" max="42" width="4.5546875" style="10" customWidth="1"/>
+    <col min="43" max="43" width="6.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.7109375" style="10"/>
-    <col min="46" max="46" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="3.7109375" style="10"/>
+    <col min="45" max="45" width="3.6640625" style="10"/>
+    <col min="46" max="46" width="4.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="3.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
@@ -6374,7 +6368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
@@ -6388,7 +6382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
@@ -6490,7 +6484,7 @@
       <c r="AU4" s="11"/>
       <c r="AV4" s="11"/>
     </row>
-    <row r="5" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F5" s="13">
         <v>2400</v>
       </c>
@@ -6500,29 +6494,29 @@
       <c r="H5" s="35">
         <v>1</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
       <c r="AF5" s="56">
         <v>3</v>
       </c>
@@ -6550,38 +6544,38 @@
       </c>
       <c r="AV5" s="11"/>
     </row>
-    <row r="6" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F6" s="13">
         <v>2300</v>
       </c>
       <c r="G6" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="87"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="86"/>
       <c r="AN6" s="11">
         <v>2</v>
       </c>
@@ -6603,38 +6597,38 @@
       </c>
       <c r="AV6" s="11"/>
     </row>
-    <row r="7" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F7" s="13">
         <v>2200</v>
       </c>
       <c r="G7" s="12">
         <v>2</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="88"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="87"/>
       <c r="AN7" s="11">
         <v>3</v>
       </c>
@@ -6656,38 +6650,38 @@
       </c>
       <c r="AV7" s="11"/>
     </row>
-    <row r="8" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F8" s="13">
         <v>2100</v>
       </c>
       <c r="G8" s="12">
         <v>3</v>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83"/>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="88"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="87"/>
       <c r="AN8" s="11">
         <v>4</v>
       </c>
@@ -6709,74 +6703,74 @@
       </c>
       <c r="AV8" s="11"/>
     </row>
-    <row r="9" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F9" s="13">
         <v>2000</v>
       </c>
       <c r="G9" s="12">
         <v>4</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="88"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="87"/>
       <c r="AT9" s="11"/>
       <c r="AU9" s="11"/>
       <c r="AV9" s="11"/>
     </row>
-    <row r="10" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F10" s="13">
         <v>1900</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="69">
         <v>5</v>
       </c>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="89"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="88"/>
       <c r="AL10" s="29"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
@@ -6790,7 +6784,7 @@
       <c r="AU10" s="11"/>
       <c r="AV10" s="11"/>
     </row>
-    <row r="11" spans="2:67" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:67" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="61" t="s">
         <v>49</v>
       </c>
@@ -6801,13 +6795,13 @@
       <c r="G11" s="12">
         <v>6</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -6818,14 +6812,14 @@
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
       <c r="X11" s="22"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="68"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
       <c r="AH11" s="62" t="s">
         <v>56</v>
       </c>
@@ -6842,7 +6836,7 @@
       <c r="AU11" s="11"/>
       <c r="AV11" s="11"/>
     </row>
-    <row r="12" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="61" t="s">
         <v>50</v>
       </c>
@@ -6896,7 +6890,7 @@
       <c r="AU12" s="11"/>
       <c r="AV12" s="11"/>
     </row>
-    <row r="13" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="61">
         <f>C4-5</f>
         <v>995</v>
@@ -6910,15 +6904,15 @@
       <c r="G13" s="12">
         <v>8</v>
       </c>
-      <c r="H13" s="66"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="21"/>
       <c r="J13" s="58" t="s">
         <v>44</v>
       </c>
       <c r="K13" s="21"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -6929,14 +6923,14 @@
       <c r="V13" s="22"/>
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="68"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="67"/>
       <c r="AH13" s="62">
         <f>C4-50</f>
         <v>950</v>
@@ -6965,7 +6959,7 @@
       <c r="AU13" s="11"/>
       <c r="AV13" s="11"/>
     </row>
-    <row r="14" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F14" s="13">
         <v>1500</v>
       </c>
@@ -7016,7 +7010,7 @@
       <c r="AU14" s="11"/>
       <c r="AV14" s="11"/>
     </row>
-    <row r="15" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:67" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F15" s="13">
         <v>1400</v>
       </c>
@@ -7039,7 +7033,7 @@
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
-      <c r="X15" s="69"/>
+      <c r="X15" s="68"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
@@ -7065,7 +7059,7 @@
       <c r="AU15" s="11"/>
       <c r="AV15" s="11"/>
     </row>
-    <row r="16" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:67" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F16" s="13">
         <v>1300</v>
       </c>
@@ -7109,7 +7103,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F17" s="13">
         <v>1200</v>
       </c>
@@ -7157,7 +7151,7 @@
       <c r="AU17" s="11"/>
       <c r="AV17" s="11"/>
     </row>
-    <row r="18" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F18" s="13">
         <v>1100</v>
       </c>
@@ -7200,7 +7194,7 @@
       <c r="AU18" s="11"/>
       <c r="AV18" s="11"/>
     </row>
-    <row r="19" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F19" s="13">
         <v>1000</v>
       </c>
@@ -7232,7 +7226,7 @@
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="38"/>
-      <c r="AL19" s="90"/>
+      <c r="AL19" s="89"/>
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
       <c r="AO19" s="11" t="s">
@@ -7245,38 +7239,38 @@
       <c r="AU19" s="11"/>
       <c r="AV19" s="11"/>
     </row>
-    <row r="20" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F20" s="13">
         <v>900</v>
       </c>
       <c r="G20" s="12">
         <v>15</v>
       </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="73"/>
-      <c r="AC20" s="73"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="75"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="72"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="72"/>
+      <c r="AC20" s="72"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="74"/>
       <c r="AL20" s="11"/>
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
@@ -7289,7 +7283,7 @@
       <c r="AU20" s="11"/>
       <c r="AV20" s="11"/>
     </row>
-    <row r="21" spans="4:48" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:48" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F21" s="13">
         <v>800</v>
       </c>
@@ -7309,8 +7303,8 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="76"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="75"/>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
       <c r="Y21" s="20"/>
@@ -7321,7 +7315,7 @@
       <c r="AD21" s="20"/>
       <c r="AE21" s="20"/>
       <c r="AF21" s="42"/>
-      <c r="AL21" s="71"/>
+      <c r="AL21" s="70"/>
       <c r="AO21" s="11" t="s">
         <v>70</v>
       </c>
@@ -7330,7 +7324,7 @@
       <c r="AU21" s="11"/>
       <c r="AV21" s="11"/>
     </row>
-    <row r="22" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F22" s="13">
         <v>700</v>
       </c>
@@ -7350,8 +7344,8 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="77"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="76"/>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="16"/>
@@ -7374,7 +7368,7 @@
       <c r="AU22" s="11"/>
       <c r="AV22" s="11"/>
     </row>
-    <row r="23" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F23" s="13">
         <v>600</v>
       </c>
@@ -7394,8 +7388,8 @@
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="77"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="76"/>
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="16"/>
@@ -7415,7 +7409,7 @@
       <c r="AU23" s="11"/>
       <c r="AV23" s="11"/>
     </row>
-    <row r="24" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F24" s="13">
         <v>500</v>
       </c>
@@ -7435,8 +7429,8 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="77"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="76"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="16"/>
@@ -7449,7 +7443,7 @@
       <c r="AF24" s="44"/>
       <c r="AS24" s="11"/>
     </row>
-    <row r="25" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F25" s="13">
         <v>400</v>
       </c>
@@ -7467,10 +7461,10 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
-      <c r="S25" s="69"/>
+      <c r="S25" s="68"/>
       <c r="T25" s="15"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="77"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="76"/>
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="16"/>
@@ -7481,7 +7475,7 @@
       <c r="AD25" s="16"/>
       <c r="AE25" s="16"/>
       <c r="AF25" s="44"/>
-      <c r="AL25" s="91"/>
+      <c r="AL25" s="90"/>
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
       <c r="AO25" s="11" t="s">
@@ -7492,7 +7486,7 @@
       <c r="AR25" s="11"/>
       <c r="AS25" s="11"/>
     </row>
-    <row r="26" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F26" s="13">
         <v>300</v>
       </c>
@@ -7512,8 +7506,8 @@
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
-      <c r="U26" s="80"/>
-      <c r="V26" s="77"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="76"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="16"/>
@@ -7525,7 +7519,7 @@
       <c r="AE26" s="16"/>
       <c r="AF26" s="44"/>
     </row>
-    <row r="27" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F27" s="13">
         <v>200</v>
       </c>
@@ -7545,8 +7539,8 @@
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="77"/>
+      <c r="U27" s="79"/>
+      <c r="V27" s="76"/>
       <c r="W27" s="59">
         <v>2</v>
       </c>
@@ -7560,7 +7554,7 @@
       <c r="AE27" s="16"/>
       <c r="AF27" s="44"/>
     </row>
-    <row r="28" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F28" s="13">
         <v>100</v>
       </c>
@@ -7580,8 +7574,8 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
-      <c r="U28" s="80"/>
-      <c r="V28" s="77"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="76"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="16"/>
@@ -7593,7 +7587,7 @@
       <c r="AE28" s="16"/>
       <c r="AF28" s="44"/>
     </row>
-    <row r="29" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F29" s="13">
         <v>0</v>
       </c>
@@ -7615,8 +7609,8 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
-      <c r="U29" s="81"/>
-      <c r="V29" s="78"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="77"/>
       <c r="W29" s="25"/>
       <c r="X29" s="25"/>
       <c r="Y29" s="27"/>
@@ -7631,13 +7625,13 @@
       </c>
       <c r="AS29" s="11"/>
     </row>
-    <row r="30" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="AS30" s="11"/>
     </row>
-    <row r="31" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H31" s="13">
         <f>H4*$C$2</f>
         <v>0</v>
@@ -7678,63 +7672,63 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="R31" s="64">
+      <c r="R31" s="63">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="S31" s="64">
+      <c r="S31" s="63">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="T31" s="64">
+      <c r="T31" s="63">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="U31" s="64">
+      <c r="U31" s="63">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="V31" s="64">
+      <c r="V31" s="63">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="W31" s="64">
+      <c r="W31" s="63">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="X31" s="64">
+      <c r="X31" s="63">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="Y31" s="64">
+      <c r="Y31" s="63">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="Z31" s="64">
+      <c r="Z31" s="63">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="AA31" s="64">
+      <c r="AA31" s="63">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="AB31" s="65">
+      <c r="AB31" s="64">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="AC31" s="64">
+      <c r="AC31" s="63">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="AD31" s="65">
+      <c r="AD31" s="64">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="AE31" s="65">
+      <c r="AE31" s="64">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="AF31" s="65">
+      <c r="AF31" s="64">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
@@ -7743,22 +7737,22 @@
       </c>
       <c r="AS31" s="11"/>
     </row>
-    <row r="32" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:48" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="R32" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AS32" s="11"/>
     </row>
-    <row r="33" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS33" s="11"/>
     </row>
-    <row r="34" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS34" s="11"/>
     </row>
-    <row r="35" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS35" s="11"/>
     </row>
-    <row r="36" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="45:45" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AS36" s="11"/>
     </row>
   </sheetData>
